--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-453785.3004187627</v>
+        <v>-439987.4410729796</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16765245.16155729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9201224.368496979</v>
+        <v>9251125.892928066</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>317.8227870144768</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>405.0045074720252</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3564484371379</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>99.08302158250626</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>109.4214227270916</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>143.5062754865797</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.11288841831316</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>159.1000412385906</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>147.172646396281</v>
+        <v>214.1242682761311</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>104.0905801833828</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1370,22 +1370,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>296.589909209495</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>223.3903795829859</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950065</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>208.2631588479963</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>27.33721772847669</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1816,13 +1816,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>161.6379250432761</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225717</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>48.38806639660899</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948852</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2239,13 +2239,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2257,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>71.497884119015</v>
       </c>
       <c r="X22" t="n">
-        <v>135.6786012922761</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2485,13 +2485,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828358961</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,22 +2716,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>94.43123673215241</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>170.2098356895113</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>46.47710458853159</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2959,13 +2959,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3080,7 +3080,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556909</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>16.0551245615324</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>153.2006427344287</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3509,13 +3509,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545403</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F38" t="n">
-        <v>407.3530449561369</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242213</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H38" t="n">
         <v>270.0031426724685</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925392</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169443</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174058</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267643</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W38" t="n">
         <v>384.5711897043296</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432397</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934401</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762378</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3718,13 +3718,13 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W40" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811742</v>
+        <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
         <v>208.9097636402854</v>
@@ -3746,13 +3746,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561369</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H41" t="n">
         <v>270.0031426724685</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925394</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169443</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267643</v>
       </c>
       <c r="W41" t="n">
         <v>384.5711897043296</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432399</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934487</v>
+        <v>4.967932742935654</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3955,16 +3955,16 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W43" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811742</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3983,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561369</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H44" t="n">
         <v>270.0031426724685</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925392</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169443</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267643</v>
       </c>
       <c r="W44" t="n">
         <v>384.5711897043296</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934487</v>
+        <v>4.967932742935901</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4192,16 +4192,16 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W46" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811742</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>1365.703789869733</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5381531497385</v>
+        <v>1331.60172109356</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>895.6919362680044</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>461.9171914262996</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.82172933334478</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.82172933334478</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.82172933334478</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048478</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424402</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312587</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271182</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2215.391543435272</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1796.249080014583</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>1792.00336035464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517776</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>452.1202237884199</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.0299349349731</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>262.9095202619268</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>179.5256818780884</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>94.14059214427232</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048478</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094238</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098154</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.538070098154</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.538070098154</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.538070098154</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.538070098154</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218278</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134399</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.36636525232</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315407</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>766.5367714259833</v>
+        <v>818.9992147459656</v>
       </c>
       <c r="C4" t="n">
-        <v>593.9750599092082</v>
+        <v>818.9992147459656</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>653.1212219474883</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>483.3632181982256</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>306.6561641599818</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>141.0648891858094</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>141.0648891858094</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048478</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>138.9846251251746</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>413.7430796963102</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>831.9529614642713</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1291.436828645185</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1733.695631802829</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2153.36488102861</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2452.054223159907</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2598.829176729611</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2439.587808027607</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2193.708361606063</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1915.275360859168</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1628.319852729598</v>
       </c>
       <c r="W4" t="n">
-        <v>1431.16681549745</v>
+        <v>1356.29344831589</v>
       </c>
       <c r="X4" t="n">
-        <v>1185.775060830862</v>
+        <v>1110.901693649302</v>
       </c>
       <c r="Y4" t="n">
-        <v>958.3553901449704</v>
+        <v>1010.817833464953</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>626.6133988393539</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C5" t="n">
-        <v>198.0317245766222</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="W5" t="n">
-        <v>1476.301152404893</v>
+        <v>2524.289942058037</v>
       </c>
       <c r="X5" t="n">
-        <v>1057.158688984204</v>
+        <v>2509.187882677752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1052.912969324262</v>
+        <v>2504.942163017809</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>194.6507809638211</v>
+        <v>990.3147246321321</v>
       </c>
       <c r="C7" t="n">
-        <v>194.6507809638211</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>194.6507809638211</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>194.6507809638211</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>613.8890703687</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.4693996828083</v>
+        <v>1182.133343351119</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1774.027062840442</v>
+        <v>577.3912258549057</v>
       </c>
       <c r="C8" t="n">
-        <v>1739.924994064269</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>1304.015209238714</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>870.2404643970087</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>442.3730348062165</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>40.97520342948042</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>40.97520342948042</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948042</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>865.469821841324</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>865.469821841324</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>865.469821841324</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>865.469821841324</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>865.469821841324</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1372.537964281144</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1879.606106720965</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474021</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1965.108297657858</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1816.449058873736</v>
+        <v>2453.773686758568</v>
       </c>
       <c r="U8" t="n">
-        <v>1816.449058873736</v>
+        <v>2194.551384075585</v>
       </c>
       <c r="V8" t="n">
-        <v>1816.449058873736</v>
+        <v>1831.934434009412</v>
       </c>
       <c r="W8" t="n">
-        <v>1815.634008325173</v>
+        <v>1831.119383460849</v>
       </c>
       <c r="X8" t="n">
-        <v>1800.531948944888</v>
+        <v>1411.97692004016</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.286229284946</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207732</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574155</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039688</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309225</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470841</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326795</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948042</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.03887658993801</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561504</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959706</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374129</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374129</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374129</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374129</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213156</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005364</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>311.9951964131929</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>311.9951964131929</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>146.1172036147156</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>40.97520342948042</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>40.97520342948042</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>40.97520342948042</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>40.97520342948042</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948042</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.97520342948042</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97520342948042</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>379.8413579393406</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>839.3252251202537</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1281.584028277898</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1701.25327750368</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.760171474021</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474021</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2027.342350179393</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1868.10098147739</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1622.221535055845</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1343.78853430895</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.833026179381</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>784.8066217656722</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>539.4148670990846</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>311.9951964131929</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1808.638426333792</v>
+        <v>1063.057747070961</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.495953517216</v>
+        <v>763.4719801926828</v>
       </c>
       <c r="D11" t="n">
-        <v>934.5861686916601</v>
+        <v>763.4719801926828</v>
       </c>
       <c r="E11" t="n">
-        <v>500.8114238499553</v>
+        <v>763.4719801926828</v>
       </c>
       <c r="F11" t="n">
-        <v>72.94399425916303</v>
+        <v>763.4719801926828</v>
       </c>
       <c r="G11" t="n">
-        <v>72.94399425916303</v>
+        <v>362.0741488159468</v>
       </c>
       <c r="H11" t="n">
-        <v>72.94399425916303</v>
+        <v>72.94399425916305</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916303</v>
+        <v>72.94399425916305</v>
       </c>
       <c r="J11" t="n">
         <v>508.1986817120809</v>
       </c>
       <c r="K11" t="n">
-        <v>508.1986817120809</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="L11" t="n">
-        <v>1200.555058455961</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="M11" t="n">
-        <v>1200.555058455961</v>
+        <v>2103.236987413105</v>
       </c>
       <c r="N11" t="n">
-        <v>1200.555058455961</v>
+        <v>2103.236987413105</v>
       </c>
       <c r="O11" t="n">
-        <v>2103.236987413104</v>
+        <v>2103.236987413105</v>
       </c>
       <c r="P11" t="n">
         <v>2931.5468622465</v>
       </c>
       <c r="Q11" t="n">
-        <v>3478.045648205094</v>
+        <v>3478.045648205095</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.199712958151</v>
+        <v>3647.199712958152</v>
       </c>
       <c r="S11" t="n">
-        <v>3647.199712958151</v>
+        <v>3563.547839141989</v>
       </c>
       <c r="T11" t="n">
-        <v>3647.199712958151</v>
+        <v>3343.480612015028</v>
       </c>
       <c r="U11" t="n">
-        <v>3647.199712958151</v>
+        <v>3084.258309332045</v>
       </c>
       <c r="V11" t="n">
-        <v>3284.582762891978</v>
+        <v>2721.641359265871</v>
       </c>
       <c r="W11" t="n">
-        <v>2879.727308303011</v>
+        <v>2316.785904676904</v>
       </c>
       <c r="X11" t="n">
-        <v>2460.584844882322</v>
+        <v>1897.643441256215</v>
       </c>
       <c r="Y11" t="n">
-        <v>2234.9379968187</v>
+        <v>1489.357317555869</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>114.6796464429506</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916303</v>
+        <v>72.94399425916305</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962063</v>
+        <v>99.00766741962065</v>
       </c>
       <c r="J12" t="n">
         <v>423.565992385833</v>
       </c>
       <c r="K12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.565992385833</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.565992385833</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.565992385833</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.565992385833</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.565992385833</v>
       </c>
       <c r="P12" t="n">
         <v>1078.272039011557</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1063.342205645719</v>
+        <v>920.2613790841509</v>
       </c>
       <c r="C13" t="n">
-        <v>890.7804941289444</v>
+        <v>747.6996675673759</v>
       </c>
       <c r="D13" t="n">
-        <v>724.9025013304674</v>
+        <v>581.8216747688987</v>
       </c>
       <c r="E13" t="n">
-        <v>555.1444975812046</v>
+        <v>412.0636710196359</v>
       </c>
       <c r="F13" t="n">
-        <v>378.4374435429609</v>
+        <v>235.3566169813921</v>
       </c>
       <c r="G13" t="n">
-        <v>212.8461685687885</v>
+        <v>72.94399425916305</v>
       </c>
       <c r="H13" t="n">
-        <v>72.94399425916303</v>
+        <v>72.94399425916305</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916303</v>
+        <v>72.94399425916305</v>
       </c>
       <c r="J13" t="n">
         <v>159.5236794238529</v>
@@ -5206,43 +5206,43 @@
         <v>852.4920157629496</v>
       </c>
       <c r="M13" t="n">
-        <v>1311.975882943862</v>
+        <v>1311.975882943863</v>
       </c>
       <c r="N13" t="n">
         <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.903935327288</v>
+        <v>2173.903935327289</v>
       </c>
       <c r="P13" t="n">
-        <v>2521.41082929763</v>
+        <v>2521.410829297631</v>
       </c>
       <c r="Q13" t="n">
         <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.603604161963</v>
+        <v>2668.185782867335</v>
       </c>
       <c r="S13" t="n">
-        <v>2530.362235459959</v>
+        <v>2668.185782867335</v>
       </c>
       <c r="T13" t="n">
-        <v>2530.362235459959</v>
+        <v>2422.30633644579</v>
       </c>
       <c r="U13" t="n">
-        <v>2251.929234713064</v>
+        <v>2143.873335698896</v>
       </c>
       <c r="V13" t="n">
-        <v>1964.973726583495</v>
+        <v>1856.917827569326</v>
       </c>
       <c r="W13" t="n">
-        <v>1692.947322169787</v>
+        <v>1584.891423155617</v>
       </c>
       <c r="X13" t="n">
-        <v>1482.580495050598</v>
+        <v>1339.49966848903</v>
       </c>
       <c r="Y13" t="n">
-        <v>1255.160824364707</v>
+        <v>1112.079997803138</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5264,10 +5264,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5285,7 +5285,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5318,10 +5318,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>809.0580335016147</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>809.0580335016147</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M15" t="n">
-        <v>809.0580335016147</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N15" t="n">
-        <v>809.0580335016147</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O15" t="n">
-        <v>809.0580335016147</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1039.174348374284</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>866.6126368575088</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674088</v>
+        <v>700.7346440590316</v>
       </c>
       <c r="E16" t="n">
         <v>673.121292818146</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799022</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057299</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961044</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5437,10 +5437,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M16" t="n">
         <v>1341.292728955479</v>
@@ -5464,22 +5464,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2396.408450114731</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954128</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.992967093271</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5513,28 +5513,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5543,19 +5543,19 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136697</v>
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.756877347711</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309359</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5674,7 +5674,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5689,7 +5689,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q19" t="n">
         <v>2718.920450173579</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2510.802246727525</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2232.369245980631</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1673.387333437353</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5750,16 +5750,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5783,19 +5783,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>920.0973401405612</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>838.9992856166233</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>673.121292818146</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5911,7 +5911,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5920,40 +5920,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113126</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338907</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309249</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173581</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173581</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471578</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050033</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303138</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173569</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.38472175986</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X22" t="n">
-        <v>1339.33562954544</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.915958859548</v>
+        <v>1203.379615852386</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,16 +5996,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>970.9960463903952</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736202</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751429</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6163,7 +6163,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
         <v>2718.920450173579</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6212,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.781058858859</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="C28" t="n">
-        <v>754.2193473420839</v>
+        <v>617.7751448769887</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>451.8971520785114</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1863.437507344034</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1591.411102930325</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1346.019348263738</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1118.599677577846</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,49 +6464,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423626</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423626</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993932</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>790.3368563937635</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>743.3902861023175</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6625,7 +6625,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6731,16 +6731,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
         <v>2955.199618136697</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562603</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085203</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702765</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O36" t="n">
-        <v>1116.062450089081</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.8521152449518</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
@@ -7160,46 +7160,46 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197254</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
         <v>4607.41549767352</v>
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936676</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080664</v>
       </c>
       <c r="E40" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716798</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463114</v>
+        <v>442.5209799463121</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882663</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758677</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823632</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
@@ -7357,25 +7357,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290616</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230403</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835853</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197256</v>
+        <v>370.2971508197254</v>
       </c>
       <c r="H41" t="n">
         <v>97.56670367581785</v>
@@ -7415,22 +7415,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
@@ -7439,22 +7439,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7546,34 +7546,34 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936668</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463114</v>
+        <v>442.5209799463118</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823632</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856841</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7585,22 +7585,22 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579743</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290616</v>
       </c>
       <c r="T43" t="n">
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197254</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M44" t="n">
-        <v>2523.346856428596</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.346856428596</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O44" t="n">
-        <v>3503.526522998903</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P44" t="n">
-        <v>4331.836397832299</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7682,7 +7682,7 @@
         <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
         <v>3629.919912574025</v>
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
         <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936682</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D46" t="n">
-        <v>756.186622908067</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E46" t="n">
-        <v>602.82832657168</v>
+        <v>602.8283265716793</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463123</v>
+        <v>442.5209799463117</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758678</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823632</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856843</v>
+        <v>925.3347848856841</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7828,28 +7828,28 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231238</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850367</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060596</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.25748950982279</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,19 +8140,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>301.7064061932283</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>393.1716474332583</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685053</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685053</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685053</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920796</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685053</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>342.2890449594547</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8690,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>699.3498754988689</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>768.3717310533796</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395381</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9003,13 +9003,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>301.5463146682409</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9477,7 +9477,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>161.1527324371088</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,7 +9644,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,22 +10112,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352437</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,22 +10428,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10659,16 +10659,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>753.8499336302457</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.9345526149732</v>
+        <v>350.72306039261</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>137.1711388789159</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.8128828803572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.146865729424064</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.67467827192536</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>140.7232059832934</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>81.78272691405313</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>195.0325855607203</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>197.8082562505564</v>
       </c>
       <c r="X22" t="n">
-        <v>107.2592358276455</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>73.6291869796177</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>113.8761173587625</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>124.3589898130757</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>227.3655273957969</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>122.448028004997</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.083728675134077e-12</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.500133350873512e-12</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>772856.0546148608</v>
+        <v>791788.7410645982</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>772856.0546148608</v>
+        <v>792810.4579071286</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>780067.1421704588</v>
+        <v>792810.4579071286</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818768.7240231059</v>
+        <v>818768.7240231057</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818768.7240231057</v>
+        <v>818768.7240231059</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818768.7240231059</v>
+        <v>818768.724023106</v>
       </c>
     </row>
     <row r="13">
@@ -26341,7 +26341,7 @@
         <v>210743.033654941</v>
       </c>
       <c r="L2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="M2" t="n">
         <v>210743.033654941</v>
@@ -26350,10 +26350,10 @@
         <v>214458.9279561634</v>
       </c>
       <c r="O2" t="n">
-        <v>214458.9279561633</v>
+        <v>214458.9279561635</v>
       </c>
       <c r="P2" t="n">
-        <v>214458.9279561633</v>
+        <v>214458.9279561635</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797193</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928949193</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.5707947738</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543122</v>
+        <v>72938.0436153441</v>
       </c>
       <c r="F3" t="n">
         <v>105000.4827540557</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877635</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375341</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.2272640121</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400288</v>
+        <v>60876.72976950146</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.1476371606</v>
+        <v>88373.14763716047</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>184344.3895735675</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>205320.7071758599</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>85043.57401430389</v>
+        <v>85043.57401430391</v>
       </c>
       <c r="F4" t="n">
         <v>108317.3178284629</v>
@@ -26445,19 +26445,19 @@
         <v>108317.3178284629</v>
       </c>
       <c r="L4" t="n">
-        <v>108317.317828463</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="M4" t="n">
         <v>108317.3178284629</v>
       </c>
       <c r="N4" t="n">
+        <v>120278.8232507374</v>
+      </c>
+      <c r="O4" t="n">
         <v>120278.8232507375</v>
       </c>
-      <c r="O4" t="n">
-        <v>120278.8232507374</v>
-      </c>
       <c r="P4" t="n">
-        <v>120278.8232507374</v>
+        <v>120278.8232507375</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996844</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640512</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>55437.43563696391</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-205382.426873338</v>
+        <v>-262867.0746670918</v>
       </c>
       <c r="C6" t="n">
-        <v>-63191.12621362801</v>
+        <v>-46292.9258078712</v>
       </c>
       <c r="D6" t="n">
-        <v>-82933.10462087538</v>
+        <v>-42269.57887892194</v>
       </c>
       <c r="E6" t="n">
-        <v>-94334.27711938793</v>
+        <v>-48263.83459960717</v>
       </c>
       <c r="F6" t="n">
-        <v>-80293.00553337023</v>
+        <v>-80316.22987275284</v>
       </c>
       <c r="G6" t="n">
-        <v>24707.47722068554</v>
+        <v>24684.2528813029</v>
       </c>
       <c r="H6" t="n">
-        <v>24707.47722068551</v>
+        <v>24684.25288130287</v>
       </c>
       <c r="I6" t="n">
-        <v>24707.47722068551</v>
+        <v>24684.25288130287</v>
       </c>
       <c r="J6" t="n">
-        <v>-86306.98812430474</v>
+        <v>-146708.7235064606</v>
       </c>
       <c r="K6" t="n">
-        <v>24707.47722068554</v>
+        <v>21479.13153392757</v>
       </c>
       <c r="L6" t="n">
-        <v>2462.249956673419</v>
+        <v>24684.25288130283</v>
       </c>
       <c r="M6" t="n">
-        <v>-74876.90465331735</v>
+        <v>-36192.47688819859</v>
       </c>
       <c r="N6" t="n">
-        <v>-69708.65765782438</v>
+        <v>-69708.65765782417</v>
       </c>
       <c r="O6" t="n">
-        <v>18664.48997933624</v>
+        <v>18664.48997933626</v>
       </c>
       <c r="P6" t="n">
-        <v>18664.48997933613</v>
+        <v>18664.48997933631</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>16.23571033874737</v>
+      </c>
+      <c r="O2" t="n">
+        <v>16.23571033874742</v>
+      </c>
+      <c r="P2" t="n">
         <v>16.23571033874743</v>
-      </c>
-      <c r="O2" t="n">
-        <v>16.23571033874735</v>
-      </c>
-      <c r="P2" t="n">
-        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685053</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.799928239538</v>
+        <v>911.7999282395381</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874744</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.4534571017972</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840101</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710326</v>
+        <v>244.2847216316811</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452074</v>
+        <v>366.4605751452073</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.4534571017972</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840078</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710329</v>
+        <v>244.2847216316811</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081851</v>
+        <v>307.7838677081847</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.4534571017972</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840101</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710326</v>
+        <v>244.2847216316811</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452074</v>
+        <v>366.4605751452073</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>113.7278999628231</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>18.58424782285908</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>5.949691932433495</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>126.0624523965265</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>322.1292642502083</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>74.36027936911205</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27679,7 +27679,7 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>140.7232059832942</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.83994225927069</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>70.69390845941081</v>
+        <v>3.742286579560698</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>63.96984352838732</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-5.01790180288512e-13</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874742</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874743</v>
       </c>
     </row>
   </sheetData>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850367</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060596</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.25748950982279</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>301.7064061932283</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>393.1716474332583</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,10 +35188,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685053</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685053</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685053</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920796</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685053</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>342.2890449594547</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>699.3498754988689</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>768.3717310533796</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395381</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35723,13 +35723,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>301.5463146682409</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35805,13 +35805,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36057,10 +36057,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36197,7 +36197,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>161.1527324371088</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36282,13 +36282,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956028</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
@@ -36364,7 +36364,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512938</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36674,22 +36674,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36832,22 +36832,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352437</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36911,22 +36911,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36993,10 +36993,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37397,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,19 +37552,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>753.8499336302457</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033062</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L43" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38023,7 +38023,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.9345526149732</v>
+        <v>350.72306039261</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778282</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O46" t="n">
         <v>440.1440428900419</v>
